--- a/test_files/Modify_dpm_metric_2_dpms_should_fail.xlsx
+++ b/test_files/Modify_dpm_metric_2_dpms_should_fail.xlsx
@@ -16,14 +16,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="217">
+  <si>
+    <t>HREF</t>
+  </si>
+  <si>
+    <t>PROPERTYTYPE</t>
+  </si>
+  <si>
+    <t>TITLE_FI</t>
+  </si>
+  <si>
+    <t>TITLE_SV</t>
+  </si>
+  <si>
+    <t>TITLE_EN</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_FI</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_SV</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_EN</t>
+  </si>
+  <si>
+    <t>CREATED</t>
+  </si>
+  <si>
+    <t>MODIFIED</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>Creative Commons Nimeä 4.0 Kansainvälinen (CC BY 4.0)</t>
+  </si>
+  <si>
+    <t>Creative Commons Erkännande 4.0 Internationell (CC BY 4.0)</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution 4.0 International (CC BY 4.0)</t>
+  </si>
+  <si>
+    <t>Koodisto on lisensoitu Creative Commons Nimeä 4.0 Kansainvälinen -lisenssillä.</t>
+  </si>
+  <si>
+    <t>Detta kodelist är licensierat under en Creative Commons Erkännande 4.0 Internationell Licens.</t>
+  </si>
+  <si>
+    <t>This code list is licensed under a Creative Commons Attribution 4.0 International License.</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/publicdomain/zero/1.0/</t>
+  </si>
+  <si>
+    <t>Creative Commons CC0 1.0 Yleismaailmallinen (CC0 1.0)</t>
+  </si>
+  <si>
+    <t>Creative Commons CC0 1.0 universell (CC0 1.0)</t>
+  </si>
+  <si>
+    <t>Creative Commons CC0 1.0 Universal (CC0 1.0)</t>
+  </si>
+  <si>
+    <t>Koodisto on lisensoitu Creative Commons Zero (CC0) -lisenssillä.</t>
+  </si>
+  <si>
+    <t>Detta kodelist är licensierat under en Creative Commons Zero (CC0) Licens.</t>
+  </si>
+  <si>
+    <t>This code list is licensed under a Creative Commons Zero (CC0) License.</t>
+  </si>
   <si>
     <t>CODEVALUE</t>
   </si>
   <si>
+    <t>BROADER</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>PREFLABEL_FI</t>
+  </si>
+  <si>
+    <t>SHORTNAME</t>
+  </si>
+  <si>
+    <t>CONCEPTURI</t>
+  </si>
+  <si>
+    <t>HIERARCHYLEVEL</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>STARTDATE</t>
+  </si>
+  <si>
+    <t>ENDDATE</t>
+  </si>
+  <si>
+    <t>testcode28</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DRAFT</t>
+  </si>
+  <si>
+    <t>Testcode 28</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>testcode29</t>
+  </si>
+  <si>
     <t>ORGANIZATION</t>
   </si>
   <si>
+    <t>Testcode 29</t>
+  </si>
+  <si>
     <t>INFORMATIONDOMAIN</t>
   </si>
   <si>
@@ -33,7 +159,7 @@
     <t>VERSION</t>
   </si>
   <si>
-    <t>STATUS</t>
+    <t>2</t>
   </si>
   <si>
     <t>SOURCE</t>
@@ -45,28 +171,28 @@
     <t>GOVERNANCEPOLICY</t>
   </si>
   <si>
-    <t>CONCEPTURI</t>
+    <t>testcode30</t>
   </si>
   <si>
     <t>DEFAULTCODE</t>
   </si>
   <si>
-    <t>PREFLABEL_FI</t>
-  </si>
-  <si>
-    <t>STARTDATE</t>
-  </si>
-  <si>
-    <t>ENDDATE</t>
-  </si>
-  <si>
-    <t>CREATED</t>
-  </si>
-  <si>
-    <t>MODIFIED</t>
-  </si>
-  <si>
-    <t>HREF</t>
+    <t>Testcode 30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>testcode31</t>
+  </si>
+  <si>
+    <t>Testcode 31</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>testcode32</t>
   </si>
   <si>
     <t>CODESSHEET</t>
@@ -78,186 +204,60 @@
     <t>EXTENSIONSSHEET</t>
   </si>
   <si>
+    <t>Testcode 32</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
+    <t>testcode33</t>
+  </si>
+  <si>
     <t>74a41211-8c99-4835-a519-7a61612b1098</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
+    <t>Testcode 33</t>
+  </si>
+  <si>
     <t>en;fi</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DRAFT</t>
-  </si>
-  <si>
-    <t/>
+    <t>6</t>
   </si>
   <si>
     <t>Koodisto600</t>
   </si>
   <si>
+    <t>testcode34</t>
+  </si>
+  <si>
     <t>2018-01-01</t>
   </si>
   <si>
     <t>2019-01-01</t>
   </si>
   <si>
+    <t>Testcode 34</t>
+  </si>
+  <si>
     <t>Codes_600</t>
   </si>
   <si>
     <t>Links_600</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Extensions_600</t>
   </si>
   <si>
-    <t>PROPERTYTYPE</t>
-  </si>
-  <si>
-    <t>BROADER</t>
-  </si>
-  <si>
-    <t>TITLE_FI</t>
-  </si>
-  <si>
-    <t>TITLE_SV</t>
-  </si>
-  <si>
-    <t>TITLE_EN</t>
-  </si>
-  <si>
-    <t>SHORTNAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_FI</t>
-  </si>
-  <si>
-    <t>HIERARCHYLEVEL</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_SV</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_EN</t>
-  </si>
-  <si>
-    <t>testcode28</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>Creative Commons Nimeä 4.0 Kansainvälinen (CC BY 4.0)</t>
-  </si>
-  <si>
-    <t>Testcode 28</t>
-  </si>
-  <si>
-    <t>Creative Commons Erkännande 4.0 Internationell (CC BY 4.0)</t>
-  </si>
-  <si>
-    <t>Creative Commons Attribution 4.0 International (CC BY 4.0)</t>
-  </si>
-  <si>
-    <t>Koodisto on lisensoitu Creative Commons Nimeä 4.0 Kansainvälinen -lisenssillä.</t>
-  </si>
-  <si>
-    <t>Detta kodelist är licensierat under en Creative Commons Erkännande 4.0 Internationell Licens.</t>
-  </si>
-  <si>
-    <t>This code list is licensed under a Creative Commons Attribution 4.0 International License.</t>
-  </si>
-  <si>
-    <t>2018-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>testcode29</t>
-  </si>
-  <si>
-    <t>Testcode 29</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/publicdomain/zero/1.0/</t>
-  </si>
-  <si>
-    <t>Creative Commons CC0 1.0 Yleismaailmallinen (CC0 1.0)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Creative Commons CC0 1.0 universell (CC0 1.0)</t>
-  </si>
-  <si>
-    <t>Creative Commons CC0 1.0 Universal (CC0 1.0)</t>
-  </si>
-  <si>
-    <t>Koodisto on lisensoitu Creative Commons Zero (CC0) -lisenssillä.</t>
-  </si>
-  <si>
-    <t>testcode30</t>
-  </si>
-  <si>
-    <t>Detta kodelist är licensierat under en Creative Commons Zero (CC0) Licens.</t>
-  </si>
-  <si>
-    <t>This code list is licensed under a Creative Commons Zero (CC0) License.</t>
-  </si>
-  <si>
-    <t>Testcode 30</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>testcode31</t>
-  </si>
-  <si>
-    <t>Testcode 31</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>testcode32</t>
-  </si>
-  <si>
-    <t>Testcode 32</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>testcode33</t>
-  </si>
-  <si>
-    <t>Testcode 33</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>testcode34</t>
-  </si>
-  <si>
-    <t>Testcode 34</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>testcode35</t>
   </si>
   <si>
@@ -465,6 +465,51 @@
     <t>30</t>
   </si>
   <si>
+    <t>CODESCHEMES</t>
+  </si>
+  <si>
+    <t>PREFLABEL_EN</t>
+  </si>
+  <si>
+    <t>MEMBERSSHEET</t>
+  </si>
+  <si>
+    <t>dpmMetric</t>
+  </si>
+  <si>
+    <t>DPM Metric laajennus</t>
+  </si>
+  <si>
+    <t>DPM Metric</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>Members_600_dpmMetric</t>
+  </si>
+  <si>
+    <t>dpmMetric2</t>
+  </si>
+  <si>
+    <t>DPM Metric laajennus2</t>
+  </si>
+  <si>
+    <t>DPM Metric2</t>
+  </si>
+  <si>
+    <t>2018-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>Members_600_dpmMetric2</t>
+  </si>
+  <si>
     <t>DPMFLOWTYPE</t>
   </si>
   <si>
@@ -477,7 +522,7 @@
     <t>DPMBALANCETYPE</t>
   </si>
   <si>
-    <t>DPMDATATYPE</t>
+    <t>DPMMETRICDATATYPE</t>
   </si>
   <si>
     <t>CODE</t>
@@ -486,7 +531,7 @@
     <t>RELATION</t>
   </si>
   <si>
-    <t>ddd</t>
+    <t>Instant</t>
   </si>
   <si>
     <t>ccc</t>
@@ -495,45 +540,15 @@
     <t>eee</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Enumeration</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode28</t>
   </si>
   <si>
-    <t>CODESCHEMES</t>
-  </si>
-  <si>
-    <t>PREFLABEL_EN</t>
-  </si>
-  <si>
-    <t>MEMBERSSHEET</t>
-  </si>
-  <si>
-    <t>dpmMetric</t>
-  </si>
-  <si>
-    <t>DPM Metric laajennus</t>
-  </si>
-  <si>
-    <t>DPM Metric</t>
-  </si>
-  <si>
-    <t>2018-11-01</t>
-  </si>
-  <si>
-    <t>2020-11-01</t>
-  </si>
-  <si>
-    <t>Members_600_dpmMetric</t>
-  </si>
-  <si>
-    <t>dpmMetric2</t>
-  </si>
-  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode29</t>
   </si>
   <si>
@@ -549,6 +564,9 @@
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode33</t>
   </si>
   <si>
+    <t>Boolean</t>
+  </si>
+  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode34</t>
   </si>
   <si>
@@ -561,42 +579,42 @@
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode37</t>
   </si>
   <si>
-    <t>DPM Metric laajennus2</t>
-  </si>
-  <si>
-    <t>DPM Metric2</t>
-  </si>
-  <si>
-    <t>2018-11-02</t>
-  </si>
-  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode38</t>
   </si>
   <si>
-    <t>2020-11-02</t>
+    <t>Date</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode39</t>
   </si>
   <si>
-    <t>Members_600_dpmMetric2</t>
-  </si>
-  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode40</t>
   </si>
   <si>
+    <t>Integer</t>
+  </si>
+  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode41</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode42</t>
   </si>
   <si>
+    <t>Duration</t>
+  </si>
+  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode43</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode44</t>
   </si>
   <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Monetary</t>
+  </si>
+  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode45</t>
   </si>
   <si>
@@ -606,6 +624,9 @@
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode47</t>
   </si>
   <si>
+    <t>Percentage</t>
+  </si>
+  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode48</t>
   </si>
   <si>
@@ -615,16 +636,28 @@
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode50</t>
   </si>
   <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode51</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode52</t>
   </si>
   <si>
+    <t>Decimal</t>
+  </si>
+  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode53</t>
   </si>
   <si>
+    <t>Lei</t>
+  </si>
+  <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode54</t>
+  </si>
+  <si>
+    <t>Isin</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode55</t>
@@ -650,10 +683,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -675,15 +712,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,125 +776,124 @@
     <col customWidth="1" min="15" max="17" width="8.71"/>
     <col customWidth="1" min="18" max="19" width="17.14"/>
     <col customWidth="1" min="20" max="20" width="18.0"/>
-    <col customWidth="1" min="21" max="25" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1855,103 +1894,103 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="25" width="8.71"/>
+    <col customWidth="1" min="1" max="10" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2957,293 +2996,293 @@
     <col customWidth="1" min="3" max="10" width="8.71"/>
     <col customWidth="1" min="11" max="11" width="20.29"/>
     <col customWidth="1" min="12" max="12" width="22.86"/>
-    <col customWidth="1" min="13" max="25" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -3251,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -3286,34 +3325,34 @@
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -3321,34 +3360,34 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
         <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -3356,34 +3395,34 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
         <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -3391,34 +3430,34 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
         <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -3426,34 +3465,34 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -3461,34 +3500,34 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -3496,34 +3535,34 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
         <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -3531,34 +3570,34 @@
         <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
         <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -3566,34 +3605,34 @@
         <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
         <v>109</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -3601,34 +3640,34 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
         <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -3636,34 +3675,34 @@
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
         <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -3671,34 +3710,34 @@
         <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
         <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -3706,34 +3745,34 @@
         <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
         <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -3741,34 +3780,34 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
         <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3776,34 +3815,34 @@
         <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
         <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M24" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3811,34 +3850,34 @@
         <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
         <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3846,34 +3885,34 @@
         <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
         <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3881,34 +3920,34 @@
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
         <v>136</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3916,34 +3955,34 @@
         <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
         <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3951,34 +3990,34 @@
         <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
         <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3986,34 +4025,34 @@
         <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
         <v>145</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -4021,34 +4060,34 @@
         <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
         <v>148</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -5049,97 +5088,96 @@
     <col customWidth="1" min="9" max="9" width="12.57"/>
     <col customWidth="1" min="10" max="10" width="18.86"/>
     <col customWidth="1" min="11" max="11" width="26.86"/>
-    <col customWidth="1" min="12" max="25" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>171</v>
+      <c r="A3" t="s">
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>187</v>
+        <v>162</v>
+      </c>
+      <c r="K3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6151,827 +6189,856 @@
     <col customWidth="1" min="9" max="9" width="24.43"/>
     <col customWidth="1" min="10" max="10" width="21.14"/>
     <col customWidth="1" min="11" max="11" width="18.86"/>
-    <col customWidth="1" min="12" max="25" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3">
         <v>43101.0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>43831.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
         <v>43102.0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>43832.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
         <v>43103.0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>43833.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="1">
+      <c r="E5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3">
         <v>43104.0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>43834.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
         <v>43105.0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>43835.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
         <v>43106.0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>43836.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3">
         <v>43107.0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>43837.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
         <v>43108.0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>43838.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3">
         <v>43109.0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>43839.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3">
         <v>43110.0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>43840.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
         <v>43111.0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>43841.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3">
         <v>43112.0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>43842.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3">
         <v>43113.0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>43843.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3">
         <v>43114.0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>43844.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3">
         <v>43115.0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>43845.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3">
         <v>43116.0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>43846.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="A18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3">
         <v>43117.0</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>43847.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="A19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3">
         <v>43118.0</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>43848.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="A20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H20" s="1">
+      <c r="B20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3">
         <v>43119.0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>43849.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="A21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3">
         <v>43120.0</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>43850.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3">
         <v>43121.0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
         <v>43851.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="1">
+      <c r="E23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3">
         <v>43122.0</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>43852.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="A24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3">
         <v>43123.0</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>43853.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="A25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3">
         <v>43124.0</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>43854.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="A26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3">
         <v>43125.0</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>43855.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="A27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3">
         <v>43126.0</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>43856.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="A28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3">
         <v>43127.0</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="3">
         <v>43857.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="A29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3">
         <v>43128.0</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="3">
         <v>43858.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="A30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3">
         <v>43129.0</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="3">
         <v>43859.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" t="s">
-        <v>205</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="A31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3">
         <v>43130.0</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>43860.0</v>
       </c>
     </row>
@@ -7961,819 +8028,1826 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.57"/>
+    <col customWidth="1" min="2" max="2" width="14.43"/>
+    <col customWidth="1" min="3" max="3" width="24.43"/>
+    <col customWidth="1" min="4" max="4" width="21.57"/>
+    <col customWidth="1" min="5" max="5" width="28.29"/>
+    <col customWidth="1" min="6" max="6" width="49.29"/>
+    <col customWidth="1" min="7" max="7" width="59.86"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3">
         <v>43101.0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>43831.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
         <v>43102.0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>43832.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
         <v>43103.0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>43833.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="1">
+      <c r="E5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3">
         <v>43104.0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>43834.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
         <v>43105.0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>43835.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
         <v>43106.0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>43836.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3">
         <v>43107.0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>43837.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
         <v>43108.0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>43838.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3">
         <v>43109.0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>43839.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3">
         <v>43110.0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>43840.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
         <v>43111.0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>43841.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3">
         <v>43112.0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>43842.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3">
         <v>43113.0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>43843.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3">
         <v>43114.0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>43844.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3">
         <v>43115.0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>43845.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3">
         <v>43116.0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>43846.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="A18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3">
         <v>43117.0</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>43847.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="A19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3">
         <v>43118.0</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>43848.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="A20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H20" s="1">
+      <c r="B20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3">
         <v>43119.0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>43849.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="1">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3">
         <v>43120.0</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>43850.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="1">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3">
         <v>43121.0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
         <v>43851.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="1">
+      <c r="E23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3">
         <v>43122.0</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>43852.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="1">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3">
         <v>43123.0</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>43853.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="1">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3">
         <v>43124.0</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>43854.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" s="1">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3">
         <v>43125.0</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>43855.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="1">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3">
         <v>43126.0</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>43856.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="1">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3">
         <v>43127.0</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="3">
         <v>43857.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="1">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3">
         <v>43128.0</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="3">
         <v>43858.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="1">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3">
         <v>43129.0</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="3">
         <v>43859.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" t="s">
-        <v>205</v>
-      </c>
-      <c r="H31" s="1">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3">
         <v>43130.0</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>43860.0</v>
       </c>
     </row>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
